--- a/documents/データベース正規化_vol1.xlsx
+++ b/documents/データベース正規化_vol1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\DOJO\WEB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-5\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EF0127-0F74-4AFD-BC8B-096177BCBC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929BE794-6417-4159-A5B7-B912AF4E79AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{50CE6D5B-C6AB-4BEC-8DA4-5BC7ACACE7A9}"/>
+    <workbookView xWindow="7440" yWindow="165" windowWidth="13845" windowHeight="10920" xr2:uid="{50CE6D5B-C6AB-4BEC-8DA4-5BC7ACACE7A9}"/>
   </bookViews>
   <sheets>
     <sheet name="料理" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>料理id</t>
     <rPh sb="0" eb="2">
@@ -170,6 +170,66 @@
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dish_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dish_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img_path</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dish_genre</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>difficulty</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>food_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>food_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>food_genre</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>regist_d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deadline</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>remarks</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -231,7 +291,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -242,6 +302,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -558,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFAB00A2-E080-40C9-A244-B06E0C4C8FAA}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -587,6 +650,14 @@
         <v>18</v>
       </c>
     </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>3</v>
@@ -620,6 +691,27 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
@@ -643,6 +735,17 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>2</v>
@@ -656,6 +759,14 @@
         <v>9</v>
       </c>
     </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>7</v>
@@ -676,6 +787,23 @@
       </c>
       <c r="E14" s="2" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/documents/データベース正規化_vol1.xlsx
+++ b/documents/データベース正規化_vol1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-5\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929BE794-6417-4159-A5B7-B912AF4E79AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F8B772-F202-4691-9D1E-88371AFB466E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="165" windowWidth="13845" windowHeight="10920" xr2:uid="{50CE6D5B-C6AB-4BEC-8DA4-5BC7ACACE7A9}"/>
+    <workbookView xWindow="1560" yWindow="600" windowWidth="12015" windowHeight="10920" xr2:uid="{50CE6D5B-C6AB-4BEC-8DA4-5BC7ACACE7A9}"/>
   </bookViews>
   <sheets>
     <sheet name="料理" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>料理id</t>
     <rPh sb="0" eb="2">
@@ -50,16 +50,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>料理詳細テーブル</t>
-    <rPh sb="0" eb="2">
-      <t>リョウリ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>料理テーブル</t>
     <rPh sb="0" eb="2">
       <t>リョウリ</t>
@@ -230,6 +220,30 @@
   </si>
   <si>
     <t>remarks</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m_user</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>料理詳細テーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m_dish</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m_food</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dish_details</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stock</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -237,7 +251,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +267,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -262,7 +284,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -285,13 +307,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -305,6 +392,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -621,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFAB00A2-E080-40C9-A244-B06E0C4C8FAA}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -638,172 +755,203 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>17</v>
+      <c r="A1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
+    </row>
+    <row r="4" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>14</v>
+      <c r="A5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>1</v>
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
+    <row r="8" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>29</v>
-      </c>
+    </row>
+    <row r="12" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>7</v>
+      <c r="A13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="C18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="E19" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/documents/データベース正規化_vol1.xlsx
+++ b/documents/データベース正規化_vol1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-5\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F8B772-F202-4691-9D1E-88371AFB466E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0168C1B2-38F4-4125-AE69-EC6B53BDD199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="600" windowWidth="12015" windowHeight="10920" xr2:uid="{50CE6D5B-C6AB-4BEC-8DA4-5BC7ACACE7A9}"/>
+    <workbookView xWindow="1128" yWindow="1020" windowWidth="12708" windowHeight="10992" xr2:uid="{50CE6D5B-C6AB-4BEC-8DA4-5BC7ACACE7A9}"/>
   </bookViews>
   <sheets>
     <sheet name="料理" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>料理id</t>
     <rPh sb="0" eb="2">
@@ -46,6 +46,16 @@
     <t>食材テーブル</t>
     <rPh sb="0" eb="2">
       <t>ショクザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>料理詳細テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>リョウリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウサイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -220,30 +230,6 @@
   </si>
   <si>
     <t>remarks</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>m_user</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>料理詳細テーブル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>m_dish</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>m_food</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dish_details</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>stock</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -251,7 +237,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,7 +255,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -284,7 +278,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -307,78 +301,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -397,31 +326,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -738,220 +652,194 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFAB00A2-E080-40C9-A244-B06E0C4C8FAA}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.3984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>36</v>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>13</v>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>27</v>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>1</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="1" t="s">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="C14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="C15" s="6" t="s">
         <v>33</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
